--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahab\Desktop\xampp\htdocs\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahab\Desktop\xampp\htdocs\Patient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB95D7FA-AC72-4130-8309-51B1E410C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A329AFF-002B-4340-AAD5-6CC2A80BB759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{930EF86A-0FD7-4F1F-AF95-361ADC61AEB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26241A9F-144A-46DD-AB7A-6DA5F468646E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PatientInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="Facility" sheetId="2" r:id="rId2"/>
+    <sheet name="presentfacility" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Column Name</t>
   </si>
@@ -56,10 +58,7 @@
     <t>INT</t>
   </si>
   <si>
-    <t>Unique identifier for each patient.</t>
-  </si>
-  <si>
-    <t>Primary Key, Auto-increment</t>
+    <t>Unique identifier for each patient record</t>
   </si>
   <si>
     <t>last_name</t>
@@ -68,16 +67,16 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>The last name of the patient.</t>
-  </si>
-  <si>
-    <t>Not Null</t>
+    <t>Last name of the patient</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t>The first name of the patient.</t>
+    <t>First name of the patient</t>
   </si>
   <si>
     <t>middle_initial</t>
@@ -86,7 +85,7 @@
     <t>CHAR(1)</t>
   </si>
   <si>
-    <t>The middle initial of the patient's name.</t>
+    <t>Middle initial of the patient</t>
   </si>
   <si>
     <t>gender</t>
@@ -95,43 +94,40 @@
     <t>ENUM('Male', 'Female')</t>
   </si>
   <si>
-    <t>The gender of the patient.</t>
+    <t>Gender of the patient</t>
   </si>
   <si>
     <t>dob_year</t>
   </si>
   <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>The year of birth of the patient.</t>
+    <t>Year of birth of the patient</t>
   </si>
   <si>
     <t>dob_month</t>
   </si>
   <si>
-    <t>The month of birth of the patient.</t>
+    <t>Month of birth of the patient</t>
   </si>
   <si>
     <t>dob_day</t>
   </si>
   <si>
-    <t>The day of birth of the patient.</t>
+    <t>Day of birth of the patient</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>The age of the patient.</t>
+    <t>Age of the patient</t>
   </si>
   <si>
     <t>age_type</t>
   </si>
   <si>
-    <t>ENUM('Years', 'Months')</t>
-  </si>
-  <si>
-    <t>Specifies whether the age is in years or months.</t>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>Unit for age (e.g., Years, Months)</t>
   </si>
   <si>
     <t>race</t>
@@ -140,7 +136,7 @@
     <t>ENUM('White', 'Black', 'Asian/Pacific Islander', 'Unknown', 'Other')</t>
   </si>
   <si>
-    <t>The race of the patient.</t>
+    <t>Race of the patient</t>
   </si>
   <si>
     <t>race_other</t>
@@ -149,7 +145,7 @@
     <t>VARCHAR(100)</t>
   </si>
   <si>
-    <t>If the race is 'Other', this field allows specifying the race.</t>
+    <t>Specifies the race if 'Other' is selected</t>
   </si>
   <si>
     <t>hispanic_latino</t>
@@ -158,31 +154,40 @@
     <t>ENUM('Yes', 'No', 'Unknown')</t>
   </si>
   <si>
-    <t>Indicates whether the patient is Hispanic or Latino.</t>
+    <t>Hispanic or Latino status</t>
+  </si>
+  <si>
+    <t>facility_id</t>
+  </si>
+  <si>
+    <t>present_facility_id</t>
+  </si>
+  <si>
+    <t>Unique identifier for each facility record</t>
   </si>
   <si>
     <t>facility_name</t>
   </si>
   <si>
-    <t>The name of the facility where the patient was or is being treated, if applicable.</t>
+    <t>Name of the facility</t>
   </si>
   <si>
     <t>facility_city</t>
   </si>
   <si>
-    <t>The city where the facility is located.</t>
+    <t>City where the facility is located</t>
   </si>
   <si>
     <t>facility_county</t>
   </si>
   <si>
-    <t>The county where the facility is located.</t>
+    <t>County where the facility is located</t>
   </si>
   <si>
     <t>facility_state</t>
   </si>
   <si>
-    <t>The state where the facility is located.</t>
+    <t>State where the facility is located</t>
   </si>
   <si>
     <t>facility_phone</t>
@@ -191,50 +196,62 @@
     <t>VARCHAR(20)</t>
   </si>
   <si>
-    <t>The phone number of the facility.</t>
+    <t>Phone number of the facility</t>
   </si>
   <si>
     <t>medical_record</t>
   </si>
   <si>
-    <t>The medical record number associated with the patient.</t>
+    <t>Link between a patient and the patient's medical records</t>
+  </si>
+  <si>
+    <t>Unique identifier for each present facility record</t>
   </si>
   <si>
     <t>present_facility_name</t>
   </si>
   <si>
-    <t>The name of the facility where the patient currently resides, if applicable.</t>
+    <t>Name of the present facility</t>
   </si>
   <si>
     <t>present_street</t>
   </si>
   <si>
-    <t>The street address of the patient's current residence.</t>
+    <t>Street address of the present facility</t>
   </si>
   <si>
     <t>present_city</t>
   </si>
   <si>
-    <t>The city of the patient's current residence.</t>
+    <t>City where the present facility is located</t>
   </si>
   <si>
     <t>present_county</t>
   </si>
   <si>
-    <t>The county of the patient's current residence.</t>
+    <t>County where the present facility is located</t>
   </si>
   <si>
     <t>present_state</t>
   </si>
   <si>
-    <t>The state of the patient's current residence.</t>
+    <t>State where the present facility is located</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT, PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>Foreign key referencing facility(id)</t>
+  </si>
+  <si>
+    <t>Foreign key referencing presentfacility(id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,16 +261,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,9 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,22 +650,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3176235-D2D1-4CCF-B09D-EADAD656BF1B}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0BAA0D-0C2D-4D91-804E-27E5351A5607}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,315 +679,439 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="37.5">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="29">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.5">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EB9C11-D8EC-4F5A-BD72-B44792AA6AF3}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="29">
-      <c r="A20" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="29">
-      <c r="A21" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3BC64-0F70-44D5-B308-8A91B4F44932}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="29">
-      <c r="A22" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="29">
-      <c r="A23" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="29">
-      <c r="A24" s="2" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="29">
-      <c r="A25" s="2" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahab\Desktop\xampp\htdocs\Patient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A329AFF-002B-4340-AAD5-6CC2A80BB759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243AACD2-C375-4815-80E9-EDBC642153D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26241A9F-144A-46DD-AB7A-6DA5F468646E}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>age_type</t>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
     <t>Unit for age (e.g., Years, Months)</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Foreign key referencing presentfacility(id)</t>
+  </si>
+  <si>
+    <t>ENUM('Years', 'Months')</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0BAA0D-0C2D-4D91-804E-27E5351A5607}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -808,10 +808,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="12" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -833,25 +833,25 @@
     </row>
     <row r="13" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -859,25 +859,25 @@
     </row>
     <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -925,81 +925,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1047,69 +1047,69 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2"/>
     </row>
